--- a/biology/Botanique/Ilex_anonoides/Ilex_anonoides.xlsx
+++ b/biology/Botanique/Ilex_anonoides/Ilex_anonoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilex anonoides est une espèce de plante du genre Ilex de la famille des Aquifoliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante endémique en Colombie, à l'Équateur et au Pérou [2], Ilex anonoides est un arbuste à feuilles caduques ; les feuilles sont de forme ovale, vert sombre, aux contours légèrement en dents de scie ; il porte à la mi-printemps des fleurs blanches, qui attirent les papillons et les abeilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante endémique en Colombie, à l'Équateur et au Pérou , Ilex anonoides est un arbuste à feuilles caduques ; les feuilles sont de forme ovale, vert sombre, aux contours légèrement en dents de scie ; il porte à la mi-printemps des fleurs blanches, qui attirent les papillons et les abeilles.
 Elle est menacée par la destruction de son habitat.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex anonoides a été décrit en 1901 par le botaniste allemand Ludwig Eduard Theodor Loesener[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex anonoides a été décrit en 1901 par le botaniste allemand Ludwig Eduard Theodor Loesener.
 </t>
         </is>
       </c>
